--- a/biology/Zoologie/Chaetorhynchus_papuensis/Chaetorhynchus_papuensis.xlsx
+++ b/biology/Zoologie/Chaetorhynchus_papuensis/Chaetorhynchus_papuensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetorhynchus papuensis est une espèce de passereaux de la famille des Rhipiduridae. C'est la seule espèce du genre Chaetorhynchus.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études phylogéniques d'Irestedt et al. (2008), Jønsson et al. (2011), Norman et al. (2009), Nyári et al. (2009) et Schodde &amp; Christidis (2014) démontrent que Chaetorhynchus papuensis est un parent éloigné de Lamprolia victoriae, et qu'ensemble ils forment une sous-famille dans le clade des Rhipiduridae. En conséquence, le Congrès ornithologique international (classification 4.3, 2014) déplace cette espèce de la famille des Dicruridae à la famille des Rhipiduridae.
 Quand elle était placée dans la famille des Dicruridae, son nom normalisé CINFO était Drongo papou.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en Nouvelle-Guinée.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les forêts humides tropicales et subtropicales.
 </t>
